--- a/python/api/SEM/BEP/data/ColumnsDescription.xlsx
+++ b/python/api/SEM/BEP/data/ColumnsDescription.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlanderc\PycharmProjects\cookbook\python\api\SEM\BEP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B87CCF-8356-421B-A2C7-40229AC65898}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F18EEF3-AABC-437E-943B-34171F071880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="440" windowWidth="12590" windowHeight="8790" xr2:uid="{77F7461B-95E8-407C-B642-D5C39756FDED}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{77F7461B-95E8-407C-B642-D5C39756FDED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>Column</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Section label</t>
   </si>
   <si>
-    <t>Issues</t>
-  </si>
-  <si>
     <t>start</t>
   </si>
   <si>
@@ -240,14 +237,94 @@
   </si>
   <si>
     <t>kgCO2</t>
+  </si>
+  <si>
+    <t>Refer to FK (automatic based on acronym)</t>
+  </si>
+  <si>
+    <t>Refer to FK (automatic based login)</t>
+  </si>
+  <si>
+    <t>Ensure UTC</t>
+  </si>
+  <si>
+    <t>Ensure UTC and start &lt; stop</t>
+  </si>
+  <si>
+    <t>Make concepts of mission and travel distinct</t>
+  </si>
+  <si>
+    <t>Quantification error (INTEGER)</t>
+  </si>
+  <si>
+    <t>Mixed type error and misattribution errors</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Mission</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Mission, Travel</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Misspeled names, requires sources or geocoding</t>
+  </si>
+  <si>
+    <t>Real path unknown, mixed type error</t>
+  </si>
+  <si>
+    <t>Not representative of the travel, quantification error</t>
+  </si>
+  <si>
+    <t>TravelType</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Misattributed type in sources</t>
+  </si>
+  <si>
+    <t>Misclassified type (accuracy about 86%)</t>
+  </si>
+  <si>
+    <t>Assessed on travel code, global coefficient</t>
+  </si>
+  <si>
+    <t>External source</t>
+  </si>
+  <si>
+    <t>Impacted by inaccuracies listed above</t>
+  </si>
+  <si>
+    <t>Exists</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -275,8 +352,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,66 +669,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF55E23A-28D4-4CE8-AB55-0CB1BA49794E}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="A1:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.08984375" customWidth="1"/>
     <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.08984375" customWidth="1"/>
-    <col min="5" max="5" width="36.26953125" customWidth="1"/>
-    <col min="6" max="6" width="9.6328125" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" customWidth="1"/>
+    <col min="6" max="6" width="36.26953125" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" customWidth="1"/>
+    <col min="8" max="8" width="14.36328125" customWidth="1"/>
+    <col min="9" max="9" width="47.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -660,17 +756,26 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -680,59 +785,86 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -740,19 +872,28 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>34</v>
+      <c r="D7">
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -760,19 +901,28 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -780,19 +930,28 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
+      <c r="D9">
+        <v>0</v>
       </c>
       <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -800,79 +959,112 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>23</v>
+      <c r="D10">
+        <v>0</v>
       </c>
       <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
         <v>45</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
         <v>46</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -880,39 +1072,51 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>19</v>
+      <c r="D14">
+        <v>0</v>
       </c>
       <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
         <v>48</v>
       </c>
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -920,19 +1124,28 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
-        <v>23</v>
+      <c r="D16">
+        <v>0</v>
       </c>
       <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>54</v>
-      </c>
-      <c r="F16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>55</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
@@ -940,97 +1153,140 @@
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" t="s">
-        <v>23</v>
+      <c r="D17">
+        <v>0</v>
       </c>
       <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>56</v>
       </c>
-      <c r="F17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
         <v>57</v>
       </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>58</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
         <v>60</v>
       </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>61</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
         <v>63</v>
       </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>64</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
         <v>66</v>
       </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>67</v>
       </c>
-      <c r="F21" t="s">
-        <v>68</v>
+      <c r="H21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>